--- a/data/analysis/indicators/indic_pivot_tables/indic-governance_simpl/indic_counts-governance_simpl.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-governance_simpl/indic_counts-governance_simpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="26">
   <si>
     <t>session_id</t>
   </si>
@@ -43,10 +43,25 @@
     <t>20210404</t>
   </si>
   <si>
+    <t>20210503</t>
+  </si>
+  <si>
+    <t>20210614</t>
+  </si>
+  <si>
     <t>20210629</t>
   </si>
   <si>
+    <t>20210712</t>
+  </si>
+  <si>
+    <t>20210809</t>
+  </si>
+  <si>
     <t>20210914</t>
+  </si>
+  <si>
+    <t>20211108</t>
   </si>
   <si>
     <t>closed_cur</t>
@@ -438,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,10 +487,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>616</v>
@@ -495,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1549</v>
@@ -518,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>63</v>
@@ -541,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -564,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>254</v>
@@ -587,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>833</v>
@@ -610,10 +625,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -633,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -656,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>702</v>
@@ -679,10 +694,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>1869</v>
@@ -702,10 +717,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>89</v>
@@ -725,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>37</v>
@@ -748,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>354</v>
@@ -771,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1077</v>
@@ -794,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -817,10 +832,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -840,10 +855,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>624</v>
@@ -863,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>1704</v>
@@ -886,10 +901,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>63</v>
@@ -909,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>26</v>
@@ -932,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>348</v>
@@ -955,10 +970,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>944</v>
@@ -978,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>46</v>
@@ -1001,10 +1016,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -1024,10 +1039,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>611</v>
@@ -1047,10 +1062,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>1557</v>
@@ -1070,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>63</v>
@@ -1093,10 +1108,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -1116,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>263</v>
@@ -1139,10 +1154,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>866</v>
@@ -1162,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>26</v>
@@ -1185,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1208,10 +1223,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>709</v>
@@ -1231,10 +1246,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>1886</v>
@@ -1254,10 +1269,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>90</v>
@@ -1277,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -1300,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>375</v>
@@ -1323,10 +1338,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39">
         <v>1109</v>
@@ -1346,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>30</v>
@@ -1369,10 +1384,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>16</v>
@@ -1392,10 +1407,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>635</v>
@@ -1415,10 +1430,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>1730</v>
@@ -1438,10 +1453,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>65</v>
@@ -1461,10 +1476,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -1484,10 +1499,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D46">
         <v>341</v>
@@ -1507,10 +1522,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D47">
         <v>953</v>
@@ -1530,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1553,10 +1568,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1576,22 +1591,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D50">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="E50">
         <v>795</v>
       </c>
       <c r="F50">
-        <v>65.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G50" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1599,22 +1614,22 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D51">
-        <v>1377</v>
+        <v>1491</v>
       </c>
       <c r="E51">
         <v>2399</v>
       </c>
       <c r="F51">
-        <v>57.4</v>
+        <v>62.2</v>
       </c>
       <c r="G51" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1622,22 +1637,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E52">
         <v>92</v>
       </c>
       <c r="F52">
-        <v>57.6</v>
+        <v>62</v>
       </c>
       <c r="G52" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1645,22 +1660,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>55</v>
       </c>
       <c r="F53">
-        <v>40</v>
+        <v>38.2</v>
       </c>
       <c r="G53" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1668,22 +1683,22 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E54">
         <v>795</v>
       </c>
       <c r="F54">
-        <v>30.6</v>
+        <v>31.8</v>
       </c>
       <c r="G54" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1691,22 +1706,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D55">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="E55">
         <v>2399</v>
       </c>
       <c r="F55">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="G55" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1714,10 +1729,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D56">
         <v>25</v>
@@ -1729,7 +1744,7 @@
         <v>27.2</v>
       </c>
       <c r="G56" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1737,10 +1752,10 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -1752,7 +1767,7 @@
         <v>10.9</v>
       </c>
       <c r="G57" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1760,22 +1775,22 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D58">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E58">
         <v>795</v>
       </c>
       <c r="F58">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G58" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1783,22 +1798,22 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="E59">
         <v>2399</v>
       </c>
       <c r="F59">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G59" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1806,10 +1821,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D60">
         <v>90</v>
@@ -1821,7 +1836,7 @@
         <v>97.8</v>
       </c>
       <c r="G60" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1829,22 +1844,22 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61">
         <v>55</v>
       </c>
       <c r="F61">
-        <v>69.09999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="G61" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1852,22 +1867,22 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="E62">
         <v>795</v>
       </c>
       <c r="F62">
-        <v>55.8</v>
+        <v>50.4</v>
       </c>
       <c r="G62" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1875,22 +1890,22 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>1205</v>
+        <v>1156</v>
       </c>
       <c r="E63">
         <v>2399</v>
       </c>
       <c r="F63">
-        <v>50.2</v>
+        <v>48.2</v>
       </c>
       <c r="G63" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1898,22 +1913,22 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E64">
         <v>92</v>
       </c>
       <c r="F64">
-        <v>41.3</v>
+        <v>34.8</v>
       </c>
       <c r="G64" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1921,22 +1936,22 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>55</v>
       </c>
       <c r="F65">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="G65" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1944,22 +1959,22 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D66">
-        <v>616</v>
+        <v>633</v>
       </c>
       <c r="E66">
         <v>795</v>
       </c>
       <c r="F66">
-        <v>77.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G66" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1967,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>1716</v>
+        <v>1738</v>
       </c>
       <c r="E67">
         <v>2399</v>
       </c>
       <c r="F67">
-        <v>71.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G67" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1990,22 +2005,22 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>92</v>
       </c>
       <c r="F68">
-        <v>70.7</v>
+        <v>71.7</v>
       </c>
       <c r="G68" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2013,22 +2028,22 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <v>55</v>
       </c>
       <c r="F69">
-        <v>49.1</v>
+        <v>54.5</v>
       </c>
       <c r="G69" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2036,22 +2051,22 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E70">
         <v>795</v>
       </c>
       <c r="F70">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="G70" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2059,22 +2074,22 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="E71">
         <v>2399</v>
       </c>
       <c r="F71">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="G71" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2082,10 +2097,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D72">
         <v>46</v>
@@ -2097,7 +2112,7 @@
         <v>50</v>
       </c>
       <c r="G72" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2105,10 +2120,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D73">
         <v>16</v>
@@ -2120,7 +2135,7 @@
         <v>29.1</v>
       </c>
       <c r="G73" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2128,22 +2143,22 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="E74">
         <v>795</v>
       </c>
       <c r="F74">
-        <v>58.1</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G74" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2151,22 +2166,22 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>1228</v>
+        <v>1383</v>
       </c>
       <c r="E75">
         <v>2399</v>
       </c>
       <c r="F75">
-        <v>51.2</v>
+        <v>57.6</v>
       </c>
       <c r="G75" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2174,22 +2189,22 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E76">
         <v>92</v>
       </c>
       <c r="F76">
-        <v>54.3</v>
+        <v>56.5</v>
       </c>
       <c r="G76" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2197,22 +2212,22 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E77">
         <v>55</v>
       </c>
       <c r="F77">
-        <v>36.4</v>
+        <v>40</v>
       </c>
       <c r="G77" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2220,22 +2235,22 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E78">
         <v>795</v>
       </c>
       <c r="F78">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="G78" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2243,22 +2258,22 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="E79">
         <v>2399</v>
       </c>
       <c r="F79">
-        <v>34.2</v>
+        <v>35.4</v>
       </c>
       <c r="G79" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2266,10 +2281,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D80">
         <v>24</v>
@@ -2281,7 +2296,7 @@
         <v>26.1</v>
       </c>
       <c r="G80" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2289,22 +2304,22 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E81">
         <v>55</v>
       </c>
       <c r="F81">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="G81" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2312,22 +2327,22 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E82">
         <v>795</v>
       </c>
       <c r="F82">
-        <v>88.8</v>
+        <v>88.3</v>
       </c>
       <c r="G82" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2335,22 +2350,22 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>1925</v>
+        <v>1900</v>
       </c>
       <c r="E83">
         <v>2399</v>
       </c>
       <c r="F83">
-        <v>80.2</v>
+        <v>79.2</v>
       </c>
       <c r="G83" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2358,22 +2373,22 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <v>92</v>
       </c>
       <c r="F84">
-        <v>96.7</v>
+        <v>97.8</v>
       </c>
       <c r="G84" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2381,10 +2396,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85">
         <v>38</v>
@@ -2396,7 +2411,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G85" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2404,22 +2419,22 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D86">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E86">
         <v>795</v>
       </c>
       <c r="F86">
-        <v>57.2</v>
+        <v>55.1</v>
       </c>
       <c r="G86" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2427,22 +2442,22 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>1262</v>
+        <v>1205</v>
       </c>
       <c r="E87">
         <v>2399</v>
       </c>
       <c r="F87">
-        <v>52.6</v>
+        <v>50.2</v>
       </c>
       <c r="G87" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2450,22 +2465,22 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>92</v>
       </c>
       <c r="F88">
-        <v>45.7</v>
+        <v>41.3</v>
       </c>
       <c r="G88" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2473,22 +2488,22 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>55</v>
       </c>
       <c r="F89">
-        <v>29.1</v>
+        <v>27.3</v>
       </c>
       <c r="G89" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2496,22 +2511,22 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D90">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="E90">
         <v>795</v>
       </c>
       <c r="F90">
-        <v>73.3</v>
+        <v>77.5</v>
       </c>
       <c r="G90" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2519,22 +2534,22 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D91">
-        <v>1639</v>
+        <v>1724</v>
       </c>
       <c r="E91">
         <v>2399</v>
       </c>
       <c r="F91">
-        <v>68.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G91" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2542,22 +2557,22 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D92">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E92">
         <v>92</v>
       </c>
       <c r="F92">
-        <v>60.9</v>
+        <v>72.8</v>
       </c>
       <c r="G92" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2565,22 +2580,22 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93">
         <v>55</v>
       </c>
       <c r="F93">
-        <v>49.1</v>
+        <v>50.9</v>
       </c>
       <c r="G93" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2588,22 +2603,22 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D94">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E94">
         <v>795</v>
       </c>
       <c r="F94">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="G94" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2611,22 +2626,22 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>946</v>
+        <v>976</v>
       </c>
       <c r="E95">
         <v>2399</v>
       </c>
       <c r="F95">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="G95" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2634,22 +2649,22 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D96">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E96">
         <v>92</v>
       </c>
       <c r="F96">
-        <v>45.7</v>
+        <v>50</v>
       </c>
       <c r="G96" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2657,10 +2672,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D97">
         <v>16</v>
@@ -2672,7 +2687,2767 @@
         <v>29.1</v>
       </c>
       <c r="G97" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>524</v>
+      </c>
+      <c r="E98">
+        <v>795</v>
+      </c>
+      <c r="F98">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="G98" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99">
+        <v>1377</v>
+      </c>
+      <c r="E99">
+        <v>2399</v>
+      </c>
+      <c r="F99">
+        <v>57.4</v>
+      </c>
+      <c r="G99" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100">
+        <v>53</v>
+      </c>
+      <c r="E100">
+        <v>92</v>
+      </c>
+      <c r="F100">
+        <v>57.6</v>
+      </c>
+      <c r="G100" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>22</v>
+      </c>
+      <c r="E101">
+        <v>55</v>
+      </c>
+      <c r="F101">
+        <v>40</v>
+      </c>
+      <c r="G101" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>243</v>
+      </c>
+      <c r="E102">
+        <v>795</v>
+      </c>
+      <c r="F102">
+        <v>30.6</v>
+      </c>
+      <c r="G102" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>845</v>
+      </c>
+      <c r="E103">
+        <v>2399</v>
+      </c>
+      <c r="F103">
+        <v>35.2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>25</v>
+      </c>
+      <c r="E104">
+        <v>92</v>
+      </c>
+      <c r="F104">
+        <v>27.2</v>
+      </c>
+      <c r="G104" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>55</v>
+      </c>
+      <c r="F105">
+        <v>10.9</v>
+      </c>
+      <c r="G105" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>703</v>
+      </c>
+      <c r="E106">
+        <v>795</v>
+      </c>
+      <c r="F106">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G106" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107">
+        <v>1901</v>
+      </c>
+      <c r="E107">
+        <v>2399</v>
+      </c>
+      <c r="F107">
+        <v>79.2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>90</v>
+      </c>
+      <c r="E108">
+        <v>92</v>
+      </c>
+      <c r="F108">
+        <v>97.8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>38</v>
+      </c>
+      <c r="E109">
+        <v>55</v>
+      </c>
+      <c r="F109">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G109" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>444</v>
+      </c>
+      <c r="E110">
+        <v>795</v>
+      </c>
+      <c r="F110">
+        <v>55.8</v>
+      </c>
+      <c r="G110" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>1205</v>
+      </c>
+      <c r="E111">
+        <v>2399</v>
+      </c>
+      <c r="F111">
+        <v>50.2</v>
+      </c>
+      <c r="G111" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>38</v>
+      </c>
+      <c r="E112">
+        <v>92</v>
+      </c>
+      <c r="F112">
+        <v>41.3</v>
+      </c>
+      <c r="G112" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+      <c r="F113">
+        <v>27.3</v>
+      </c>
+      <c r="G113" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>616</v>
+      </c>
+      <c r="E114">
+        <v>795</v>
+      </c>
+      <c r="F114">
+        <v>77.5</v>
+      </c>
+      <c r="G114" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>1716</v>
+      </c>
+      <c r="E115">
+        <v>2399</v>
+      </c>
+      <c r="F115">
+        <v>71.5</v>
+      </c>
+      <c r="G115" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116">
+        <v>65</v>
+      </c>
+      <c r="E116">
+        <v>92</v>
+      </c>
+      <c r="F116">
+        <v>70.7</v>
+      </c>
+      <c r="G116" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117">
+        <v>27</v>
+      </c>
+      <c r="E117">
+        <v>55</v>
+      </c>
+      <c r="F117">
+        <v>49.1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118">
+        <v>322</v>
+      </c>
+      <c r="E118">
+        <v>795</v>
+      </c>
+      <c r="F118">
+        <v>40.5</v>
+      </c>
+      <c r="G118" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119">
+        <v>978</v>
+      </c>
+      <c r="E119">
+        <v>2399</v>
+      </c>
+      <c r="F119">
+        <v>40.8</v>
+      </c>
+      <c r="G119" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120">
+        <v>46</v>
+      </c>
+      <c r="E120">
+        <v>92</v>
+      </c>
+      <c r="F120">
+        <v>50</v>
+      </c>
+      <c r="G120" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>55</v>
+      </c>
+      <c r="F121">
+        <v>29.1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>504</v>
+      </c>
+      <c r="E122">
+        <v>795</v>
+      </c>
+      <c r="F122">
+        <v>63.4</v>
+      </c>
+      <c r="G122" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>1332</v>
+      </c>
+      <c r="E123">
+        <v>2399</v>
+      </c>
+      <c r="F123">
+        <v>55.5</v>
+      </c>
+      <c r="G123" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>54</v>
+      </c>
+      <c r="E124">
+        <v>92</v>
+      </c>
+      <c r="F124">
+        <v>58.7</v>
+      </c>
+      <c r="G124" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>22</v>
+      </c>
+      <c r="E125">
+        <v>55</v>
+      </c>
+      <c r="F125">
+        <v>40</v>
+      </c>
+      <c r="G125" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>240</v>
+      </c>
+      <c r="E126">
+        <v>795</v>
+      </c>
+      <c r="F126">
+        <v>30.2</v>
+      </c>
+      <c r="G126" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127">
+        <v>839</v>
+      </c>
+      <c r="E127">
+        <v>2399</v>
+      </c>
+      <c r="F127">
+        <v>35</v>
+      </c>
+      <c r="G127" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>25</v>
+      </c>
+      <c r="E128">
+        <v>92</v>
+      </c>
+      <c r="F128">
+        <v>27.2</v>
+      </c>
+      <c r="G128" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>55</v>
+      </c>
+      <c r="F129">
+        <v>9.1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130">
+        <v>703</v>
+      </c>
+      <c r="E130">
+        <v>795</v>
+      </c>
+      <c r="F130">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G130" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>1894</v>
+      </c>
+      <c r="E131">
+        <v>2399</v>
+      </c>
+      <c r="F131">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G131" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132">
+        <v>89</v>
+      </c>
+      <c r="E132">
+        <v>92</v>
+      </c>
+      <c r="F132">
+        <v>96.7</v>
+      </c>
+      <c r="G132" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133">
+        <v>37</v>
+      </c>
+      <c r="E133">
+        <v>55</v>
+      </c>
+      <c r="F133">
+        <v>67.3</v>
+      </c>
+      <c r="G133" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>456</v>
+      </c>
+      <c r="E134">
+        <v>795</v>
+      </c>
+      <c r="F134">
+        <v>57.4</v>
+      </c>
+      <c r="G134" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135">
+        <v>1227</v>
+      </c>
+      <c r="E135">
+        <v>2399</v>
+      </c>
+      <c r="F135">
+        <v>51.1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>37</v>
+      </c>
+      <c r="E136">
+        <v>92</v>
+      </c>
+      <c r="F136">
+        <v>40.2</v>
+      </c>
+      <c r="G136" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>55</v>
+      </c>
+      <c r="F137">
+        <v>27.3</v>
+      </c>
+      <c r="G137" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138">
+        <v>610</v>
+      </c>
+      <c r="E138">
+        <v>795</v>
+      </c>
+      <c r="F138">
+        <v>76.7</v>
+      </c>
+      <c r="G138" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139">
+        <v>1687</v>
+      </c>
+      <c r="E139">
+        <v>2399</v>
+      </c>
+      <c r="F139">
+        <v>70.3</v>
+      </c>
+      <c r="G139" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>64</v>
+      </c>
+      <c r="E140">
+        <v>92</v>
+      </c>
+      <c r="F140">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G140" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141">
+        <v>26</v>
+      </c>
+      <c r="E141">
+        <v>55</v>
+      </c>
+      <c r="F141">
+        <v>47.3</v>
+      </c>
+      <c r="G141" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142">
+        <v>325</v>
+      </c>
+      <c r="E142">
+        <v>795</v>
+      </c>
+      <c r="F142">
+        <v>40.9</v>
+      </c>
+      <c r="G142" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143">
+        <v>972</v>
+      </c>
+      <c r="E143">
+        <v>2399</v>
+      </c>
+      <c r="F143">
+        <v>40.5</v>
+      </c>
+      <c r="G143" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144">
+        <v>44</v>
+      </c>
+      <c r="E144">
+        <v>92</v>
+      </c>
+      <c r="F144">
+        <v>47.8</v>
+      </c>
+      <c r="G144" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>55</v>
+      </c>
+      <c r="F145">
+        <v>29.1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146">
+        <v>477</v>
+      </c>
+      <c r="E146">
+        <v>795</v>
+      </c>
+      <c r="F146">
+        <v>60</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147">
+        <v>1294</v>
+      </c>
+      <c r="E147">
+        <v>2399</v>
+      </c>
+      <c r="F147">
+        <v>53.9</v>
+      </c>
+      <c r="G147" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148">
+        <v>53</v>
+      </c>
+      <c r="E148">
+        <v>92</v>
+      </c>
+      <c r="F148">
+        <v>57.6</v>
+      </c>
+      <c r="G148" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149">
+        <v>22</v>
+      </c>
+      <c r="E149">
+        <v>55</v>
+      </c>
+      <c r="F149">
+        <v>40</v>
+      </c>
+      <c r="G149" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150">
+        <v>239</v>
+      </c>
+      <c r="E150">
+        <v>795</v>
+      </c>
+      <c r="F150">
+        <v>30.1</v>
+      </c>
+      <c r="G150" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151">
+        <v>841</v>
+      </c>
+      <c r="E151">
+        <v>2399</v>
+      </c>
+      <c r="F151">
+        <v>35.1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152">
+        <v>25</v>
+      </c>
+      <c r="E152">
+        <v>92</v>
+      </c>
+      <c r="F152">
+        <v>27.2</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>55</v>
+      </c>
+      <c r="F153">
+        <v>9.1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154">
+        <v>697</v>
+      </c>
+      <c r="E154">
+        <v>795</v>
+      </c>
+      <c r="F154">
+        <v>87.7</v>
+      </c>
+      <c r="G154" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155">
+        <v>1896</v>
+      </c>
+      <c r="E155">
+        <v>2399</v>
+      </c>
+      <c r="F155">
+        <v>79</v>
+      </c>
+      <c r="G155" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156">
+        <v>89</v>
+      </c>
+      <c r="E156">
+        <v>92</v>
+      </c>
+      <c r="F156">
+        <v>96.7</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157">
+        <v>37</v>
+      </c>
+      <c r="E157">
+        <v>55</v>
+      </c>
+      <c r="F157">
+        <v>67.3</v>
+      </c>
+      <c r="G157" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158">
+        <v>442</v>
+      </c>
+      <c r="E158">
+        <v>795</v>
+      </c>
+      <c r="F158">
+        <v>55.6</v>
+      </c>
+      <c r="G158" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159">
+        <v>1249</v>
+      </c>
+      <c r="E159">
+        <v>2399</v>
+      </c>
+      <c r="F159">
+        <v>52.1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160">
+        <v>42</v>
+      </c>
+      <c r="E160">
+        <v>92</v>
+      </c>
+      <c r="F160">
+        <v>45.7</v>
+      </c>
+      <c r="G160" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>55</v>
+      </c>
+      <c r="F161">
+        <v>29.1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>592</v>
+      </c>
+      <c r="E162">
+        <v>795</v>
+      </c>
+      <c r="F162">
+        <v>74.5</v>
+      </c>
+      <c r="G162" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>1674</v>
+      </c>
+      <c r="E163">
+        <v>2399</v>
+      </c>
+      <c r="F163">
+        <v>69.8</v>
+      </c>
+      <c r="G163" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>64</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G164" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>27</v>
+      </c>
+      <c r="E165">
+        <v>55</v>
+      </c>
+      <c r="F165">
+        <v>49.1</v>
+      </c>
+      <c r="G165" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166">
+        <v>337</v>
+      </c>
+      <c r="E166">
+        <v>795</v>
+      </c>
+      <c r="F166">
+        <v>42.4</v>
+      </c>
+      <c r="G166" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167">
+        <v>960</v>
+      </c>
+      <c r="E167">
+        <v>2399</v>
+      </c>
+      <c r="F167">
+        <v>40</v>
+      </c>
+      <c r="G167" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168">
+        <v>44</v>
+      </c>
+      <c r="E168">
+        <v>92</v>
+      </c>
+      <c r="F168">
+        <v>47.8</v>
+      </c>
+      <c r="G168" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169">
+        <v>16</v>
+      </c>
+      <c r="E169">
+        <v>55</v>
+      </c>
+      <c r="F169">
+        <v>29.1</v>
+      </c>
+      <c r="G169" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170">
+        <v>462</v>
+      </c>
+      <c r="E170">
+        <v>795</v>
+      </c>
+      <c r="F170">
+        <v>58.1</v>
+      </c>
+      <c r="G170" s="2">
         <v>44453</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <v>1228</v>
+      </c>
+      <c r="E171">
+        <v>2399</v>
+      </c>
+      <c r="F171">
+        <v>51.2</v>
+      </c>
+      <c r="G171" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>50</v>
+      </c>
+      <c r="E172">
+        <v>92</v>
+      </c>
+      <c r="F172">
+        <v>54.3</v>
+      </c>
+      <c r="G172" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>55</v>
+      </c>
+      <c r="F173">
+        <v>36.4</v>
+      </c>
+      <c r="G173" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174">
+        <v>240</v>
+      </c>
+      <c r="E174">
+        <v>795</v>
+      </c>
+      <c r="F174">
+        <v>30.2</v>
+      </c>
+      <c r="G174" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>821</v>
+      </c>
+      <c r="E175">
+        <v>2399</v>
+      </c>
+      <c r="F175">
+        <v>34.2</v>
+      </c>
+      <c r="G175" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>24</v>
+      </c>
+      <c r="E176">
+        <v>92</v>
+      </c>
+      <c r="F176">
+        <v>26.1</v>
+      </c>
+      <c r="G176" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>55</v>
+      </c>
+      <c r="F177">
+        <v>9.1</v>
+      </c>
+      <c r="G177" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178">
+        <v>706</v>
+      </c>
+      <c r="E178">
+        <v>795</v>
+      </c>
+      <c r="F178">
+        <v>88.8</v>
+      </c>
+      <c r="G178" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179">
+        <v>1925</v>
+      </c>
+      <c r="E179">
+        <v>2399</v>
+      </c>
+      <c r="F179">
+        <v>80.2</v>
+      </c>
+      <c r="G179" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180">
+        <v>89</v>
+      </c>
+      <c r="E180">
+        <v>92</v>
+      </c>
+      <c r="F180">
+        <v>96.7</v>
+      </c>
+      <c r="G180" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181">
+        <v>38</v>
+      </c>
+      <c r="E181">
+        <v>55</v>
+      </c>
+      <c r="F181">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G181" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182">
+        <v>455</v>
+      </c>
+      <c r="E182">
+        <v>795</v>
+      </c>
+      <c r="F182">
+        <v>57.2</v>
+      </c>
+      <c r="G182" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>1262</v>
+      </c>
+      <c r="E183">
+        <v>2399</v>
+      </c>
+      <c r="F183">
+        <v>52.6</v>
+      </c>
+      <c r="G183" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>42</v>
+      </c>
+      <c r="E184">
+        <v>92</v>
+      </c>
+      <c r="F184">
+        <v>45.7</v>
+      </c>
+      <c r="G184" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>55</v>
+      </c>
+      <c r="F185">
+        <v>29.1</v>
+      </c>
+      <c r="G185" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186">
+        <v>583</v>
+      </c>
+      <c r="E186">
+        <v>795</v>
+      </c>
+      <c r="F186">
+        <v>73.3</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187">
+        <v>1639</v>
+      </c>
+      <c r="E187">
+        <v>2399</v>
+      </c>
+      <c r="F187">
+        <v>68.3</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188">
+        <v>56</v>
+      </c>
+      <c r="E188">
+        <v>92</v>
+      </c>
+      <c r="F188">
+        <v>60.9</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189">
+        <v>27</v>
+      </c>
+      <c r="E189">
+        <v>55</v>
+      </c>
+      <c r="F189">
+        <v>49.1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190">
+        <v>338</v>
+      </c>
+      <c r="E190">
+        <v>795</v>
+      </c>
+      <c r="F190">
+        <v>42.5</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191">
+        <v>946</v>
+      </c>
+      <c r="E191">
+        <v>2399</v>
+      </c>
+      <c r="F191">
+        <v>39.4</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192">
+        <v>42</v>
+      </c>
+      <c r="E192">
+        <v>92</v>
+      </c>
+      <c r="F192">
+        <v>45.7</v>
+      </c>
+      <c r="G192" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>55</v>
+      </c>
+      <c r="F193">
+        <v>29.1</v>
+      </c>
+      <c r="G193" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194">
+        <v>463</v>
+      </c>
+      <c r="E194">
+        <v>795</v>
+      </c>
+      <c r="F194">
+        <v>58.2</v>
+      </c>
+      <c r="G194" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195">
+        <v>1229</v>
+      </c>
+      <c r="E195">
+        <v>2399</v>
+      </c>
+      <c r="F195">
+        <v>51.2</v>
+      </c>
+      <c r="G195" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196">
+        <v>42</v>
+      </c>
+      <c r="E196">
+        <v>92</v>
+      </c>
+      <c r="F196">
+        <v>45.7</v>
+      </c>
+      <c r="G196" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>55</v>
+      </c>
+      <c r="F197">
+        <v>40</v>
+      </c>
+      <c r="G197" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198">
+        <v>243</v>
+      </c>
+      <c r="E198">
+        <v>795</v>
+      </c>
+      <c r="F198">
+        <v>30.6</v>
+      </c>
+      <c r="G198" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199">
+        <v>817</v>
+      </c>
+      <c r="E199">
+        <v>2399</v>
+      </c>
+      <c r="F199">
+        <v>34.1</v>
+      </c>
+      <c r="G199" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200">
+        <v>27</v>
+      </c>
+      <c r="E200">
+        <v>92</v>
+      </c>
+      <c r="F200">
+        <v>29.3</v>
+      </c>
+      <c r="G200" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>55</v>
+      </c>
+      <c r="F201">
+        <v>9.1</v>
+      </c>
+      <c r="G201" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202">
+        <v>706</v>
+      </c>
+      <c r="E202">
+        <v>795</v>
+      </c>
+      <c r="F202">
+        <v>88.8</v>
+      </c>
+      <c r="G202" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203">
+        <v>1904</v>
+      </c>
+      <c r="E203">
+        <v>2399</v>
+      </c>
+      <c r="F203">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="G203" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204">
+        <v>90</v>
+      </c>
+      <c r="E204">
+        <v>92</v>
+      </c>
+      <c r="F204">
+        <v>97.8</v>
+      </c>
+      <c r="G204" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205">
+        <v>38</v>
+      </c>
+      <c r="E205">
+        <v>55</v>
+      </c>
+      <c r="F205">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G205" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206">
+        <v>457</v>
+      </c>
+      <c r="E206">
+        <v>795</v>
+      </c>
+      <c r="F206">
+        <v>57.5</v>
+      </c>
+      <c r="G206" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207">
+        <v>1239</v>
+      </c>
+      <c r="E207">
+        <v>2399</v>
+      </c>
+      <c r="F207">
+        <v>51.6</v>
+      </c>
+      <c r="G207" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208">
+        <v>43</v>
+      </c>
+      <c r="E208">
+        <v>92</v>
+      </c>
+      <c r="F208">
+        <v>46.7</v>
+      </c>
+      <c r="G208" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>55</v>
+      </c>
+      <c r="F209">
+        <v>30.9</v>
+      </c>
+      <c r="G209" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>22</v>
+      </c>
+      <c r="D210">
+        <v>575</v>
+      </c>
+      <c r="E210">
+        <v>795</v>
+      </c>
+      <c r="F210">
+        <v>72.3</v>
+      </c>
+      <c r="G210" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211">
+        <v>1612</v>
+      </c>
+      <c r="E211">
+        <v>2399</v>
+      </c>
+      <c r="F211">
+        <v>67.2</v>
+      </c>
+      <c r="G211" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>15</v>
+      </c>
+      <c r="B212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212">
+        <v>57</v>
+      </c>
+      <c r="E212">
+        <v>92</v>
+      </c>
+      <c r="F212">
+        <v>62</v>
+      </c>
+      <c r="G212" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213">
+        <v>29</v>
+      </c>
+      <c r="E213">
+        <v>55</v>
+      </c>
+      <c r="F213">
+        <v>52.7</v>
+      </c>
+      <c r="G213" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214">
+        <v>338</v>
+      </c>
+      <c r="E214">
+        <v>795</v>
+      </c>
+      <c r="F214">
+        <v>42.5</v>
+      </c>
+      <c r="G214" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>15</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215">
+        <v>938</v>
+      </c>
+      <c r="E215">
+        <v>2399</v>
+      </c>
+      <c r="F215">
+        <v>39.1</v>
+      </c>
+      <c r="G215" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216">
+        <v>43</v>
+      </c>
+      <c r="E216">
+        <v>92</v>
+      </c>
+      <c r="F216">
+        <v>46.7</v>
+      </c>
+      <c r="G216" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>15</v>
+      </c>
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217">
+        <v>16</v>
+      </c>
+      <c r="E217">
+        <v>55</v>
+      </c>
+      <c r="F217">
+        <v>29.1</v>
+      </c>
+      <c r="G217" s="2">
+        <v>44508</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis/indicators/indic_pivot_tables/indic-governance_simpl/indic_counts-governance_simpl.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-governance_simpl/indic_counts-governance_simpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="33">
   <si>
     <t>session_id</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>20211108</t>
+  </si>
+  <si>
+    <t>20211206</t>
+  </si>
+  <si>
+    <t>20220103</t>
+  </si>
+  <si>
+    <t>20220131</t>
+  </si>
+  <si>
+    <t>20220228</t>
+  </si>
+  <si>
+    <t>20220328</t>
+  </si>
+  <si>
+    <t>20220425</t>
+  </si>
+  <si>
+    <t>20220524</t>
   </si>
   <si>
     <t>closed_cur</t>
@@ -453,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>616</v>
@@ -510,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1549</v>
@@ -533,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>63</v>
@@ -556,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>22</v>
@@ -579,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>254</v>
@@ -602,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>833</v>
@@ -625,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -648,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -671,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>702</v>
@@ -694,10 +715,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>1869</v>
@@ -717,10 +738,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>89</v>
@@ -740,10 +761,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>37</v>
@@ -763,10 +784,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>354</v>
@@ -786,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>1077</v>
@@ -809,10 +830,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -832,10 +853,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -855,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>624</v>
@@ -878,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>1704</v>
@@ -901,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>63</v>
@@ -924,10 +945,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>26</v>
@@ -947,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>348</v>
@@ -970,10 +991,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>944</v>
@@ -993,10 +1014,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>46</v>
@@ -1016,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -1039,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>611</v>
@@ -1062,10 +1083,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>1557</v>
@@ -1085,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>63</v>
@@ -1108,10 +1129,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -1131,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>263</v>
@@ -1154,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>866</v>
@@ -1177,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>26</v>
@@ -1200,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1223,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D34">
         <v>709</v>
@@ -1246,10 +1267,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1886</v>
@@ -1269,10 +1290,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>90</v>
@@ -1292,10 +1313,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -1315,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>375</v>
@@ -1338,10 +1359,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>1109</v>
@@ -1361,10 +1382,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>30</v>
@@ -1384,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>16</v>
@@ -1407,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>635</v>
@@ -1430,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1730</v>
@@ -1453,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>65</v>
@@ -1476,10 +1497,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>30</v>
@@ -1499,10 +1520,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>341</v>
@@ -1522,10 +1543,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>953</v>
@@ -1545,10 +1566,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1568,10 +1589,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -1591,10 +1612,10 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>577</v>
@@ -1614,10 +1635,10 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>1491</v>
@@ -1637,10 +1658,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>57</v>
@@ -1660,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>21</v>
@@ -1683,10 +1704,10 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D54">
         <v>253</v>
@@ -1706,10 +1727,10 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D55">
         <v>850</v>
@@ -1729,10 +1750,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D56">
         <v>25</v>
@@ -1752,10 +1773,10 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -1775,10 +1796,10 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D58">
         <v>704</v>
@@ -1798,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>1898</v>
@@ -1821,10 +1842,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D60">
         <v>90</v>
@@ -1844,10 +1865,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>37</v>
@@ -1867,10 +1888,10 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D62">
         <v>401</v>
@@ -1890,10 +1911,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>1156</v>
@@ -1913,10 +1934,10 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>32</v>
@@ -1936,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -1959,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D66">
         <v>633</v>
@@ -1982,10 +2003,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D67">
         <v>1738</v>
@@ -2005,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>66</v>
@@ -2028,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D69">
         <v>30</v>
@@ -2051,10 +2072,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D70">
         <v>324</v>
@@ -2074,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D71">
         <v>973</v>
@@ -2097,10 +2118,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D72">
         <v>46</v>
@@ -2120,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D73">
         <v>16</v>
@@ -2143,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D74">
         <v>524</v>
@@ -2166,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D75">
         <v>1383</v>
@@ -2189,10 +2210,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D76">
         <v>52</v>
@@ -2212,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D77">
         <v>22</v>
@@ -2235,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D78">
         <v>243</v>
@@ -2258,10 +2279,10 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D79">
         <v>849</v>
@@ -2281,10 +2302,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D80">
         <v>24</v>
@@ -2304,10 +2325,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -2327,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>702</v>
@@ -2350,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83">
         <v>1900</v>
@@ -2373,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D84">
         <v>90</v>
@@ -2396,10 +2417,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D85">
         <v>38</v>
@@ -2419,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86">
         <v>438</v>
@@ -2442,10 +2463,10 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D87">
         <v>1205</v>
@@ -2465,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>38</v>
@@ -2488,10 +2509,10 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D89">
         <v>15</v>
@@ -2511,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D90">
         <v>616</v>
@@ -2534,10 +2555,10 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>1724</v>
@@ -2557,10 +2578,10 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D92">
         <v>67</v>
@@ -2580,10 +2601,10 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>28</v>
@@ -2603,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D94">
         <v>319</v>
@@ -2626,10 +2647,10 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>976</v>
@@ -2649,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>46</v>
@@ -2672,10 +2693,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D97">
         <v>16</v>
@@ -2695,10 +2716,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D98">
         <v>524</v>
@@ -2718,10 +2739,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D99">
         <v>1377</v>
@@ -2741,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D100">
         <v>53</v>
@@ -2764,10 +2785,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D101">
         <v>22</v>
@@ -2787,10 +2808,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D102">
         <v>243</v>
@@ -2810,10 +2831,10 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D103">
         <v>845</v>
@@ -2833,10 +2854,10 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>25</v>
@@ -2856,10 +2877,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -2879,10 +2900,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D106">
         <v>703</v>
@@ -2902,10 +2923,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D107">
         <v>1901</v>
@@ -2925,10 +2946,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D108">
         <v>90</v>
@@ -2948,10 +2969,10 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D109">
         <v>38</v>
@@ -2971,10 +2992,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D110">
         <v>444</v>
@@ -2994,10 +3015,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D111">
         <v>1205</v>
@@ -3017,10 +3038,10 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D112">
         <v>38</v>
@@ -3040,10 +3061,10 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D113">
         <v>15</v>
@@ -3063,10 +3084,10 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D114">
         <v>616</v>
@@ -3086,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D115">
         <v>1716</v>
@@ -3109,10 +3130,10 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D116">
         <v>65</v>
@@ -3132,10 +3153,10 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D117">
         <v>27</v>
@@ -3155,10 +3176,10 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D118">
         <v>322</v>
@@ -3178,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D119">
         <v>978</v>
@@ -3201,10 +3222,10 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D120">
         <v>46</v>
@@ -3224,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D121">
         <v>16</v>
@@ -3247,10 +3268,10 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D122">
         <v>504</v>
@@ -3270,10 +3291,10 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D123">
         <v>1332</v>
@@ -3293,10 +3314,10 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D124">
         <v>54</v>
@@ -3316,10 +3337,10 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D125">
         <v>22</v>
@@ -3339,10 +3360,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D126">
         <v>240</v>
@@ -3362,10 +3383,10 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D127">
         <v>839</v>
@@ -3385,10 +3406,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D128">
         <v>25</v>
@@ -3408,10 +3429,10 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -3431,10 +3452,10 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D130">
         <v>703</v>
@@ -3454,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>1894</v>
@@ -3477,10 +3498,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D132">
         <v>89</v>
@@ -3500,10 +3521,10 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D133">
         <v>37</v>
@@ -3523,10 +3544,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D134">
         <v>456</v>
@@ -3546,10 +3567,10 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D135">
         <v>1227</v>
@@ -3569,10 +3590,10 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D136">
         <v>37</v>
@@ -3592,10 +3613,10 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D137">
         <v>15</v>
@@ -3615,10 +3636,10 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D138">
         <v>610</v>
@@ -3638,10 +3659,10 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D139">
         <v>1687</v>
@@ -3661,10 +3682,10 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D140">
         <v>64</v>
@@ -3684,10 +3705,10 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D141">
         <v>26</v>
@@ -3707,10 +3728,10 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D142">
         <v>325</v>
@@ -3730,10 +3751,10 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D143">
         <v>972</v>
@@ -3753,10 +3774,10 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D144">
         <v>44</v>
@@ -3776,10 +3797,10 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D145">
         <v>16</v>
@@ -3799,10 +3820,10 @@
         <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D146">
         <v>477</v>
@@ -3822,10 +3843,10 @@
         <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D147">
         <v>1294</v>
@@ -3845,10 +3866,10 @@
         <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D148">
         <v>53</v>
@@ -3868,10 +3889,10 @@
         <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D149">
         <v>22</v>
@@ -3891,10 +3912,10 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D150">
         <v>239</v>
@@ -3914,10 +3935,10 @@
         <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D151">
         <v>841</v>
@@ -3937,10 +3958,10 @@
         <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D152">
         <v>25</v>
@@ -3960,10 +3981,10 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <v>5</v>
@@ -3983,10 +4004,10 @@
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D154">
         <v>697</v>
@@ -4006,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D155">
         <v>1896</v>
@@ -4029,10 +4050,10 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D156">
         <v>89</v>
@@ -4052,10 +4073,10 @@
         <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D157">
         <v>37</v>
@@ -4075,10 +4096,10 @@
         <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D158">
         <v>442</v>
@@ -4098,10 +4119,10 @@
         <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D159">
         <v>1249</v>
@@ -4121,10 +4142,10 @@
         <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D160">
         <v>42</v>
@@ -4144,10 +4165,10 @@
         <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D161">
         <v>16</v>
@@ -4167,10 +4188,10 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D162">
         <v>592</v>
@@ -4190,10 +4211,10 @@
         <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D163">
         <v>1674</v>
@@ -4213,10 +4234,10 @@
         <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D164">
         <v>64</v>
@@ -4236,10 +4257,10 @@
         <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <v>27</v>
@@ -4259,10 +4280,10 @@
         <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D166">
         <v>337</v>
@@ -4282,10 +4303,10 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D167">
         <v>960</v>
@@ -4305,10 +4326,10 @@
         <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D168">
         <v>44</v>
@@ -4328,10 +4349,10 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D169">
         <v>16</v>
@@ -4351,10 +4372,10 @@
         <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D170">
         <v>462</v>
@@ -4374,10 +4395,10 @@
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D171">
         <v>1228</v>
@@ -4397,10 +4418,10 @@
         <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D172">
         <v>50</v>
@@ -4420,10 +4441,10 @@
         <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D173">
         <v>20</v>
@@ -4443,10 +4464,10 @@
         <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D174">
         <v>240</v>
@@ -4466,10 +4487,10 @@
         <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D175">
         <v>821</v>
@@ -4489,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D176">
         <v>24</v>
@@ -4512,10 +4533,10 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -4535,10 +4556,10 @@
         <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D178">
         <v>706</v>
@@ -4558,10 +4579,10 @@
         <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D179">
         <v>1925</v>
@@ -4581,10 +4602,10 @@
         <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D180">
         <v>89</v>
@@ -4604,10 +4625,10 @@
         <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D181">
         <v>38</v>
@@ -4627,10 +4648,10 @@
         <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D182">
         <v>455</v>
@@ -4650,10 +4671,10 @@
         <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D183">
         <v>1262</v>
@@ -4673,10 +4694,10 @@
         <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D184">
         <v>42</v>
@@ -4696,10 +4717,10 @@
         <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D185">
         <v>16</v>
@@ -4719,10 +4740,10 @@
         <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D186">
         <v>583</v>
@@ -4742,10 +4763,10 @@
         <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D187">
         <v>1639</v>
@@ -4765,10 +4786,10 @@
         <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D188">
         <v>56</v>
@@ -4788,10 +4809,10 @@
         <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D189">
         <v>27</v>
@@ -4811,10 +4832,10 @@
         <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D190">
         <v>338</v>
@@ -4834,10 +4855,10 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D191">
         <v>946</v>
@@ -4857,10 +4878,10 @@
         <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D192">
         <v>42</v>
@@ -4880,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D193">
         <v>16</v>
@@ -4903,10 +4924,10 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D194">
         <v>463</v>
@@ -4926,10 +4947,10 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D195">
         <v>1229</v>
@@ -4949,10 +4970,10 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D196">
         <v>42</v>
@@ -4972,10 +4993,10 @@
         <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D197">
         <v>22</v>
@@ -4995,10 +5016,10 @@
         <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D198">
         <v>243</v>
@@ -5018,10 +5039,10 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C199" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D199">
         <v>817</v>
@@ -5041,10 +5062,10 @@
         <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D200">
         <v>27</v>
@@ -5064,10 +5085,10 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D201">
         <v>5</v>
@@ -5087,10 +5108,10 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D202">
         <v>706</v>
@@ -5110,10 +5131,10 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D203">
         <v>1904</v>
@@ -5133,10 +5154,10 @@
         <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D204">
         <v>90</v>
@@ -5156,10 +5177,10 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D205">
         <v>38</v>
@@ -5179,10 +5200,10 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D206">
         <v>457</v>
@@ -5202,10 +5223,10 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C207" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D207">
         <v>1239</v>
@@ -5225,10 +5246,10 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D208">
         <v>43</v>
@@ -5248,10 +5269,10 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D209">
         <v>17</v>
@@ -5271,10 +5292,10 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D210">
         <v>575</v>
@@ -5294,10 +5315,10 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D211">
         <v>1612</v>
@@ -5317,10 +5338,10 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D212">
         <v>57</v>
@@ -5340,10 +5361,10 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D213">
         <v>29</v>
@@ -5363,10 +5384,10 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D214">
         <v>338</v>
@@ -5386,10 +5407,10 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D215">
         <v>938</v>
@@ -5409,10 +5430,10 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D216">
         <v>43</v>
@@ -5432,10 +5453,10 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D217">
         <v>16</v>
@@ -5448,6 +5469,3870 @@
       </c>
       <c r="G217" s="2">
         <v>44508</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>29</v>
+      </c>
+      <c r="D218">
+        <v>452</v>
+      </c>
+      <c r="E218">
+        <v>795</v>
+      </c>
+      <c r="F218">
+        <v>56.9</v>
+      </c>
+      <c r="G218" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>16</v>
+      </c>
+      <c r="B219" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219">
+        <v>1229</v>
+      </c>
+      <c r="E219">
+        <v>2399</v>
+      </c>
+      <c r="F219">
+        <v>51.2</v>
+      </c>
+      <c r="G219" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>40</v>
+      </c>
+      <c r="E220">
+        <v>92</v>
+      </c>
+      <c r="F220">
+        <v>43.5</v>
+      </c>
+      <c r="G220" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221">
+        <v>22</v>
+      </c>
+      <c r="E221">
+        <v>55</v>
+      </c>
+      <c r="F221">
+        <v>40</v>
+      </c>
+      <c r="G221" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222">
+        <v>244</v>
+      </c>
+      <c r="E222">
+        <v>795</v>
+      </c>
+      <c r="F222">
+        <v>30.7</v>
+      </c>
+      <c r="G222" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C223" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223">
+        <v>816</v>
+      </c>
+      <c r="E223">
+        <v>2399</v>
+      </c>
+      <c r="F223">
+        <v>34</v>
+      </c>
+      <c r="G223" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224">
+        <v>27</v>
+      </c>
+      <c r="E224">
+        <v>92</v>
+      </c>
+      <c r="F224">
+        <v>29.3</v>
+      </c>
+      <c r="G224" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>24</v>
+      </c>
+      <c r="C225" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>55</v>
+      </c>
+      <c r="F225">
+        <v>9.1</v>
+      </c>
+      <c r="G225" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" t="s">
+        <v>29</v>
+      </c>
+      <c r="D226">
+        <v>701</v>
+      </c>
+      <c r="E226">
+        <v>795</v>
+      </c>
+      <c r="F226">
+        <v>88.2</v>
+      </c>
+      <c r="G226" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227">
+        <v>1900</v>
+      </c>
+      <c r="E227">
+        <v>2399</v>
+      </c>
+      <c r="F227">
+        <v>79.2</v>
+      </c>
+      <c r="G227" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" t="s">
+        <v>31</v>
+      </c>
+      <c r="D228">
+        <v>90</v>
+      </c>
+      <c r="E228">
+        <v>92</v>
+      </c>
+      <c r="F228">
+        <v>97.8</v>
+      </c>
+      <c r="G228" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229">
+        <v>38</v>
+      </c>
+      <c r="E229">
+        <v>55</v>
+      </c>
+      <c r="F229">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G229" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230" t="s">
+        <v>29</v>
+      </c>
+      <c r="D230">
+        <v>444</v>
+      </c>
+      <c r="E230">
+        <v>795</v>
+      </c>
+      <c r="F230">
+        <v>55.8</v>
+      </c>
+      <c r="G230" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>16</v>
+      </c>
+      <c r="B231" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231">
+        <v>1226</v>
+      </c>
+      <c r="E231">
+        <v>2399</v>
+      </c>
+      <c r="F231">
+        <v>51.1</v>
+      </c>
+      <c r="G231" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232">
+        <v>45</v>
+      </c>
+      <c r="E232">
+        <v>92</v>
+      </c>
+      <c r="F232">
+        <v>48.9</v>
+      </c>
+      <c r="G232" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233">
+        <v>17</v>
+      </c>
+      <c r="E233">
+        <v>55</v>
+      </c>
+      <c r="F233">
+        <v>30.9</v>
+      </c>
+      <c r="G233" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>16</v>
+      </c>
+      <c r="B234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234">
+        <v>561</v>
+      </c>
+      <c r="E234">
+        <v>795</v>
+      </c>
+      <c r="F234">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="G234" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235">
+        <v>1599</v>
+      </c>
+      <c r="E235">
+        <v>2399</v>
+      </c>
+      <c r="F235">
+        <v>66.7</v>
+      </c>
+      <c r="G235" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236">
+        <v>56</v>
+      </c>
+      <c r="E236">
+        <v>92</v>
+      </c>
+      <c r="F236">
+        <v>60.9</v>
+      </c>
+      <c r="G236" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237">
+        <v>29</v>
+      </c>
+      <c r="E237">
+        <v>55</v>
+      </c>
+      <c r="F237">
+        <v>52.7</v>
+      </c>
+      <c r="G237" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238">
+        <v>345</v>
+      </c>
+      <c r="E238">
+        <v>795</v>
+      </c>
+      <c r="F238">
+        <v>43.4</v>
+      </c>
+      <c r="G238" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" t="s">
+        <v>28</v>
+      </c>
+      <c r="C239" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239">
+        <v>915</v>
+      </c>
+      <c r="E239">
+        <v>2399</v>
+      </c>
+      <c r="F239">
+        <v>38.1</v>
+      </c>
+      <c r="G239" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" t="s">
+        <v>28</v>
+      </c>
+      <c r="C240" t="s">
+        <v>31</v>
+      </c>
+      <c r="D240">
+        <v>38</v>
+      </c>
+      <c r="E240">
+        <v>92</v>
+      </c>
+      <c r="F240">
+        <v>41.3</v>
+      </c>
+      <c r="G240" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" t="s">
+        <v>28</v>
+      </c>
+      <c r="C241" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241">
+        <v>17</v>
+      </c>
+      <c r="E241">
+        <v>55</v>
+      </c>
+      <c r="F241">
+        <v>30.9</v>
+      </c>
+      <c r="G241" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242">
+        <v>471</v>
+      </c>
+      <c r="E242">
+        <v>795</v>
+      </c>
+      <c r="F242">
+        <v>59.2</v>
+      </c>
+      <c r="G242" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243">
+        <v>1295</v>
+      </c>
+      <c r="E243">
+        <v>2399</v>
+      </c>
+      <c r="F243">
+        <v>54</v>
+      </c>
+      <c r="G243" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>31</v>
+      </c>
+      <c r="D244">
+        <v>47</v>
+      </c>
+      <c r="E244">
+        <v>92</v>
+      </c>
+      <c r="F244">
+        <v>51.1</v>
+      </c>
+      <c r="G244" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>17</v>
+      </c>
+      <c r="B245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" t="s">
+        <v>32</v>
+      </c>
+      <c r="D245">
+        <v>22</v>
+      </c>
+      <c r="E245">
+        <v>55</v>
+      </c>
+      <c r="F245">
+        <v>40</v>
+      </c>
+      <c r="G245" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>17</v>
+      </c>
+      <c r="B246" t="s">
+        <v>24</v>
+      </c>
+      <c r="C246" t="s">
+        <v>29</v>
+      </c>
+      <c r="D246">
+        <v>244</v>
+      </c>
+      <c r="E246">
+        <v>795</v>
+      </c>
+      <c r="F246">
+        <v>30.7</v>
+      </c>
+      <c r="G246" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" t="s">
+        <v>24</v>
+      </c>
+      <c r="C247" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247">
+        <v>819</v>
+      </c>
+      <c r="E247">
+        <v>2399</v>
+      </c>
+      <c r="F247">
+        <v>34.1</v>
+      </c>
+      <c r="G247" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" t="s">
+        <v>31</v>
+      </c>
+      <c r="D248">
+        <v>29</v>
+      </c>
+      <c r="E248">
+        <v>92</v>
+      </c>
+      <c r="F248">
+        <v>31.5</v>
+      </c>
+      <c r="G248" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" t="s">
+        <v>24</v>
+      </c>
+      <c r="C249" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>55</v>
+      </c>
+      <c r="F249">
+        <v>9.1</v>
+      </c>
+      <c r="G249" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250">
+        <v>705</v>
+      </c>
+      <c r="E250">
+        <v>795</v>
+      </c>
+      <c r="F250">
+        <v>88.7</v>
+      </c>
+      <c r="G250" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251">
+        <v>1895</v>
+      </c>
+      <c r="E251">
+        <v>2399</v>
+      </c>
+      <c r="F251">
+        <v>79</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" t="s">
+        <v>31</v>
+      </c>
+      <c r="D252">
+        <v>88</v>
+      </c>
+      <c r="E252">
+        <v>92</v>
+      </c>
+      <c r="F252">
+        <v>95.7</v>
+      </c>
+      <c r="G252" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" t="s">
+        <v>32</v>
+      </c>
+      <c r="D253">
+        <v>36</v>
+      </c>
+      <c r="E253">
+        <v>55</v>
+      </c>
+      <c r="F253">
+        <v>65.5</v>
+      </c>
+      <c r="G253" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254" t="s">
+        <v>26</v>
+      </c>
+      <c r="C254" t="s">
+        <v>29</v>
+      </c>
+      <c r="D254">
+        <v>432</v>
+      </c>
+      <c r="E254">
+        <v>795</v>
+      </c>
+      <c r="F254">
+        <v>54.3</v>
+      </c>
+      <c r="G254" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255">
+        <v>1217</v>
+      </c>
+      <c r="E255">
+        <v>2399</v>
+      </c>
+      <c r="F255">
+        <v>50.7</v>
+      </c>
+      <c r="G255" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B256" t="s">
+        <v>26</v>
+      </c>
+      <c r="C256" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256">
+        <v>45</v>
+      </c>
+      <c r="E256">
+        <v>92</v>
+      </c>
+      <c r="F256">
+        <v>48.9</v>
+      </c>
+      <c r="G256" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B257" t="s">
+        <v>26</v>
+      </c>
+      <c r="C257" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257">
+        <v>16</v>
+      </c>
+      <c r="E257">
+        <v>55</v>
+      </c>
+      <c r="F257">
+        <v>29.1</v>
+      </c>
+      <c r="G257" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258" t="s">
+        <v>29</v>
+      </c>
+      <c r="D258">
+        <v>569</v>
+      </c>
+      <c r="E258">
+        <v>795</v>
+      </c>
+      <c r="F258">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="G258" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+      <c r="C259" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259">
+        <v>1621</v>
+      </c>
+      <c r="E259">
+        <v>2399</v>
+      </c>
+      <c r="F259">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="G259" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" t="s">
+        <v>27</v>
+      </c>
+      <c r="C260" t="s">
+        <v>31</v>
+      </c>
+      <c r="D260">
+        <v>60</v>
+      </c>
+      <c r="E260">
+        <v>92</v>
+      </c>
+      <c r="F260">
+        <v>65.2</v>
+      </c>
+      <c r="G260" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>17</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261">
+        <v>29</v>
+      </c>
+      <c r="E261">
+        <v>55</v>
+      </c>
+      <c r="F261">
+        <v>52.7</v>
+      </c>
+      <c r="G261" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262">
+        <v>346</v>
+      </c>
+      <c r="E262">
+        <v>795</v>
+      </c>
+      <c r="F262">
+        <v>43.5</v>
+      </c>
+      <c r="G262" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>17</v>
+      </c>
+      <c r="B263" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263">
+        <v>915</v>
+      </c>
+      <c r="E263">
+        <v>2399</v>
+      </c>
+      <c r="F263">
+        <v>38.1</v>
+      </c>
+      <c r="G263" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" t="s">
+        <v>28</v>
+      </c>
+      <c r="C264" t="s">
+        <v>31</v>
+      </c>
+      <c r="D264">
+        <v>36</v>
+      </c>
+      <c r="E264">
+        <v>92</v>
+      </c>
+      <c r="F264">
+        <v>39.1</v>
+      </c>
+      <c r="G264" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" t="s">
+        <v>28</v>
+      </c>
+      <c r="C265" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265">
+        <v>17</v>
+      </c>
+      <c r="E265">
+        <v>55</v>
+      </c>
+      <c r="F265">
+        <v>30.9</v>
+      </c>
+      <c r="G265" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266">
+        <v>468</v>
+      </c>
+      <c r="E266">
+        <v>795</v>
+      </c>
+      <c r="F266">
+        <v>58.9</v>
+      </c>
+      <c r="G266" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" t="s">
+        <v>30</v>
+      </c>
+      <c r="D267">
+        <v>1282</v>
+      </c>
+      <c r="E267">
+        <v>2399</v>
+      </c>
+      <c r="F267">
+        <v>53.4</v>
+      </c>
+      <c r="G267" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" t="s">
+        <v>31</v>
+      </c>
+      <c r="D268">
+        <v>43</v>
+      </c>
+      <c r="E268">
+        <v>92</v>
+      </c>
+      <c r="F268">
+        <v>46.7</v>
+      </c>
+      <c r="G268" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269">
+        <v>22</v>
+      </c>
+      <c r="E269">
+        <v>55</v>
+      </c>
+      <c r="F269">
+        <v>40</v>
+      </c>
+      <c r="G269" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>24</v>
+      </c>
+      <c r="C270" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270">
+        <v>243</v>
+      </c>
+      <c r="E270">
+        <v>795</v>
+      </c>
+      <c r="F270">
+        <v>30.6</v>
+      </c>
+      <c r="G270" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>24</v>
+      </c>
+      <c r="C271" t="s">
+        <v>30</v>
+      </c>
+      <c r="D271">
+        <v>821</v>
+      </c>
+      <c r="E271">
+        <v>2399</v>
+      </c>
+      <c r="F271">
+        <v>34.2</v>
+      </c>
+      <c r="G271" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>24</v>
+      </c>
+      <c r="C272" t="s">
+        <v>31</v>
+      </c>
+      <c r="D272">
+        <v>29</v>
+      </c>
+      <c r="E272">
+        <v>92</v>
+      </c>
+      <c r="F272">
+        <v>31.5</v>
+      </c>
+      <c r="G272" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>24</v>
+      </c>
+      <c r="C273" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>55</v>
+      </c>
+      <c r="F273">
+        <v>9.1</v>
+      </c>
+      <c r="G273" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" t="s">
+        <v>29</v>
+      </c>
+      <c r="D274">
+        <v>703</v>
+      </c>
+      <c r="E274">
+        <v>795</v>
+      </c>
+      <c r="F274">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G274" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275">
+        <v>1895</v>
+      </c>
+      <c r="E275">
+        <v>2399</v>
+      </c>
+      <c r="F275">
+        <v>79</v>
+      </c>
+      <c r="G275" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276">
+        <v>89</v>
+      </c>
+      <c r="E276">
+        <v>92</v>
+      </c>
+      <c r="F276">
+        <v>96.7</v>
+      </c>
+      <c r="G276" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277">
+        <v>35</v>
+      </c>
+      <c r="E277">
+        <v>55</v>
+      </c>
+      <c r="F277">
+        <v>63.6</v>
+      </c>
+      <c r="G277" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278" t="s">
+        <v>29</v>
+      </c>
+      <c r="D278">
+        <v>425</v>
+      </c>
+      <c r="E278">
+        <v>795</v>
+      </c>
+      <c r="F278">
+        <v>53.5</v>
+      </c>
+      <c r="G278" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279">
+        <v>1228</v>
+      </c>
+      <c r="E279">
+        <v>2399</v>
+      </c>
+      <c r="F279">
+        <v>51.2</v>
+      </c>
+      <c r="G279" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" t="s">
+        <v>31</v>
+      </c>
+      <c r="D280">
+        <v>47</v>
+      </c>
+      <c r="E280">
+        <v>92</v>
+      </c>
+      <c r="F280">
+        <v>51.1</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281">
+        <v>15</v>
+      </c>
+      <c r="E281">
+        <v>55</v>
+      </c>
+      <c r="F281">
+        <v>27.3</v>
+      </c>
+      <c r="G281" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>564</v>
+      </c>
+      <c r="E282">
+        <v>795</v>
+      </c>
+      <c r="F282">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="G282" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283">
+        <v>1619</v>
+      </c>
+      <c r="E283">
+        <v>2399</v>
+      </c>
+      <c r="F283">
+        <v>67.5</v>
+      </c>
+      <c r="G283" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>57</v>
+      </c>
+      <c r="E284">
+        <v>92</v>
+      </c>
+      <c r="F284">
+        <v>62</v>
+      </c>
+      <c r="G284" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285">
+        <v>28</v>
+      </c>
+      <c r="E285">
+        <v>55</v>
+      </c>
+      <c r="F285">
+        <v>50.9</v>
+      </c>
+      <c r="G285" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" t="s">
+        <v>28</v>
+      </c>
+      <c r="C286" t="s">
+        <v>29</v>
+      </c>
+      <c r="D286">
+        <v>344</v>
+      </c>
+      <c r="E286">
+        <v>795</v>
+      </c>
+      <c r="F286">
+        <v>43.3</v>
+      </c>
+      <c r="G286" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" t="s">
+        <v>28</v>
+      </c>
+      <c r="C287" t="s">
+        <v>30</v>
+      </c>
+      <c r="D287">
+        <v>918</v>
+      </c>
+      <c r="E287">
+        <v>2399</v>
+      </c>
+      <c r="F287">
+        <v>38.3</v>
+      </c>
+      <c r="G287" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" t="s">
+        <v>31</v>
+      </c>
+      <c r="D288">
+        <v>38</v>
+      </c>
+      <c r="E288">
+        <v>92</v>
+      </c>
+      <c r="F288">
+        <v>41.3</v>
+      </c>
+      <c r="G288" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289">
+        <v>17</v>
+      </c>
+      <c r="E289">
+        <v>55</v>
+      </c>
+      <c r="F289">
+        <v>30.9</v>
+      </c>
+      <c r="G289" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>19</v>
+      </c>
+      <c r="B290" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290">
+        <v>459</v>
+      </c>
+      <c r="E290">
+        <v>795</v>
+      </c>
+      <c r="F290">
+        <v>57.7</v>
+      </c>
+      <c r="G290" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>19</v>
+      </c>
+      <c r="B291" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" t="s">
+        <v>30</v>
+      </c>
+      <c r="D291">
+        <v>1254</v>
+      </c>
+      <c r="E291">
+        <v>2399</v>
+      </c>
+      <c r="F291">
+        <v>52.3</v>
+      </c>
+      <c r="G291" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" t="s">
+        <v>31</v>
+      </c>
+      <c r="D292">
+        <v>44</v>
+      </c>
+      <c r="E292">
+        <v>92</v>
+      </c>
+      <c r="F292">
+        <v>47.8</v>
+      </c>
+      <c r="G292" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
+      <c r="B293" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" t="s">
+        <v>32</v>
+      </c>
+      <c r="D293">
+        <v>22</v>
+      </c>
+      <c r="E293">
+        <v>55</v>
+      </c>
+      <c r="F293">
+        <v>40</v>
+      </c>
+      <c r="G293" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>19</v>
+      </c>
+      <c r="B294" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" t="s">
+        <v>29</v>
+      </c>
+      <c r="D294">
+        <v>243</v>
+      </c>
+      <c r="E294">
+        <v>795</v>
+      </c>
+      <c r="F294">
+        <v>30.6</v>
+      </c>
+      <c r="G294" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" t="s">
+        <v>30</v>
+      </c>
+      <c r="D295">
+        <v>811</v>
+      </c>
+      <c r="E295">
+        <v>2399</v>
+      </c>
+      <c r="F295">
+        <v>33.8</v>
+      </c>
+      <c r="G295" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296" t="s">
+        <v>24</v>
+      </c>
+      <c r="C296" t="s">
+        <v>31</v>
+      </c>
+      <c r="D296">
+        <v>29</v>
+      </c>
+      <c r="E296">
+        <v>92</v>
+      </c>
+      <c r="F296">
+        <v>31.5</v>
+      </c>
+      <c r="G296" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>19</v>
+      </c>
+      <c r="B297" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" t="s">
+        <v>32</v>
+      </c>
+      <c r="D297">
+        <v>5</v>
+      </c>
+      <c r="E297">
+        <v>55</v>
+      </c>
+      <c r="F297">
+        <v>9.1</v>
+      </c>
+      <c r="G297" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" t="s">
+        <v>25</v>
+      </c>
+      <c r="C298" t="s">
+        <v>29</v>
+      </c>
+      <c r="D298">
+        <v>703</v>
+      </c>
+      <c r="E298">
+        <v>795</v>
+      </c>
+      <c r="F298">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G298" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299">
+        <v>1901</v>
+      </c>
+      <c r="E299">
+        <v>2399</v>
+      </c>
+      <c r="F299">
+        <v>79.2</v>
+      </c>
+      <c r="G299" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>19</v>
+      </c>
+      <c r="B300" t="s">
+        <v>25</v>
+      </c>
+      <c r="C300" t="s">
+        <v>31</v>
+      </c>
+      <c r="D300">
+        <v>89</v>
+      </c>
+      <c r="E300">
+        <v>92</v>
+      </c>
+      <c r="F300">
+        <v>96.7</v>
+      </c>
+      <c r="G300" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>19</v>
+      </c>
+      <c r="B301" t="s">
+        <v>25</v>
+      </c>
+      <c r="C301" t="s">
+        <v>32</v>
+      </c>
+      <c r="D301">
+        <v>37</v>
+      </c>
+      <c r="E301">
+        <v>55</v>
+      </c>
+      <c r="F301">
+        <v>67.3</v>
+      </c>
+      <c r="G301" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>19</v>
+      </c>
+      <c r="B302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C302" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302">
+        <v>429</v>
+      </c>
+      <c r="E302">
+        <v>795</v>
+      </c>
+      <c r="F302">
+        <v>54</v>
+      </c>
+      <c r="G302" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>19</v>
+      </c>
+      <c r="B303" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303">
+        <v>1220</v>
+      </c>
+      <c r="E303">
+        <v>2399</v>
+      </c>
+      <c r="F303">
+        <v>50.9</v>
+      </c>
+      <c r="G303" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" t="s">
+        <v>31</v>
+      </c>
+      <c r="D304">
+        <v>46</v>
+      </c>
+      <c r="E304">
+        <v>92</v>
+      </c>
+      <c r="F304">
+        <v>50</v>
+      </c>
+      <c r="G304" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>19</v>
+      </c>
+      <c r="B305" t="s">
+        <v>26</v>
+      </c>
+      <c r="C305" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305">
+        <v>16</v>
+      </c>
+      <c r="E305">
+        <v>55</v>
+      </c>
+      <c r="F305">
+        <v>29.1</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>19</v>
+      </c>
+      <c r="B306" t="s">
+        <v>27</v>
+      </c>
+      <c r="C306" t="s">
+        <v>29</v>
+      </c>
+      <c r="D306">
+        <v>562</v>
+      </c>
+      <c r="E306">
+        <v>795</v>
+      </c>
+      <c r="F306">
+        <v>70.7</v>
+      </c>
+      <c r="G306" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" t="s">
+        <v>27</v>
+      </c>
+      <c r="C307" t="s">
+        <v>30</v>
+      </c>
+      <c r="D307">
+        <v>1617</v>
+      </c>
+      <c r="E307">
+        <v>2399</v>
+      </c>
+      <c r="F307">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="G307" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" t="s">
+        <v>27</v>
+      </c>
+      <c r="C308" t="s">
+        <v>31</v>
+      </c>
+      <c r="D308">
+        <v>57</v>
+      </c>
+      <c r="E308">
+        <v>92</v>
+      </c>
+      <c r="F308">
+        <v>62</v>
+      </c>
+      <c r="G308" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>27</v>
+      </c>
+      <c r="C309" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309">
+        <v>30</v>
+      </c>
+      <c r="E309">
+        <v>55</v>
+      </c>
+      <c r="F309">
+        <v>54.5</v>
+      </c>
+      <c r="G309" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310" t="s">
+        <v>29</v>
+      </c>
+      <c r="D310">
+        <v>345</v>
+      </c>
+      <c r="E310">
+        <v>795</v>
+      </c>
+      <c r="F310">
+        <v>43.4</v>
+      </c>
+      <c r="G310" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>19</v>
+      </c>
+      <c r="B311" t="s">
+        <v>28</v>
+      </c>
+      <c r="C311" t="s">
+        <v>30</v>
+      </c>
+      <c r="D311">
+        <v>920</v>
+      </c>
+      <c r="E311">
+        <v>2399</v>
+      </c>
+      <c r="F311">
+        <v>38.3</v>
+      </c>
+      <c r="G311" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>19</v>
+      </c>
+      <c r="B312" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" t="s">
+        <v>31</v>
+      </c>
+      <c r="D312">
+        <v>38</v>
+      </c>
+      <c r="E312">
+        <v>92</v>
+      </c>
+      <c r="F312">
+        <v>41.3</v>
+      </c>
+      <c r="G312" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" t="s">
+        <v>28</v>
+      </c>
+      <c r="C313" t="s">
+        <v>32</v>
+      </c>
+      <c r="D313">
+        <v>17</v>
+      </c>
+      <c r="E313">
+        <v>55</v>
+      </c>
+      <c r="F313">
+        <v>30.9</v>
+      </c>
+      <c r="G313" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+      <c r="B314" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" t="s">
+        <v>29</v>
+      </c>
+      <c r="D314">
+        <v>462</v>
+      </c>
+      <c r="E314">
+        <v>795</v>
+      </c>
+      <c r="F314">
+        <v>58.1</v>
+      </c>
+      <c r="G314" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315">
+        <v>1232</v>
+      </c>
+      <c r="E315">
+        <v>2399</v>
+      </c>
+      <c r="F315">
+        <v>51.4</v>
+      </c>
+      <c r="G315" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" t="s">
+        <v>31</v>
+      </c>
+      <c r="D316">
+        <v>43</v>
+      </c>
+      <c r="E316">
+        <v>92</v>
+      </c>
+      <c r="F316">
+        <v>46.7</v>
+      </c>
+      <c r="G316" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>20</v>
+      </c>
+      <c r="B317" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" t="s">
+        <v>32</v>
+      </c>
+      <c r="D317">
+        <v>21</v>
+      </c>
+      <c r="E317">
+        <v>55</v>
+      </c>
+      <c r="F317">
+        <v>38.2</v>
+      </c>
+      <c r="G317" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>20</v>
+      </c>
+      <c r="B318" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318">
+        <v>241</v>
+      </c>
+      <c r="E318">
+        <v>795</v>
+      </c>
+      <c r="F318">
+        <v>30.3</v>
+      </c>
+      <c r="G318" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>20</v>
+      </c>
+      <c r="B319" t="s">
+        <v>24</v>
+      </c>
+      <c r="C319" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319">
+        <v>809</v>
+      </c>
+      <c r="E319">
+        <v>2399</v>
+      </c>
+      <c r="F319">
+        <v>33.7</v>
+      </c>
+      <c r="G319" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>20</v>
+      </c>
+      <c r="B320" t="s">
+        <v>24</v>
+      </c>
+      <c r="C320" t="s">
+        <v>31</v>
+      </c>
+      <c r="D320">
+        <v>29</v>
+      </c>
+      <c r="E320">
+        <v>92</v>
+      </c>
+      <c r="F320">
+        <v>31.5</v>
+      </c>
+      <c r="G320" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>20</v>
+      </c>
+      <c r="B321" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321">
+        <v>4</v>
+      </c>
+      <c r="E321">
+        <v>55</v>
+      </c>
+      <c r="F321">
+        <v>7.3</v>
+      </c>
+      <c r="G321" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>20</v>
+      </c>
+      <c r="B322" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322">
+        <v>705</v>
+      </c>
+      <c r="E322">
+        <v>795</v>
+      </c>
+      <c r="F322">
+        <v>88.7</v>
+      </c>
+      <c r="G322" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" t="s">
+        <v>25</v>
+      </c>
+      <c r="C323" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323">
+        <v>1896</v>
+      </c>
+      <c r="E323">
+        <v>2399</v>
+      </c>
+      <c r="F323">
+        <v>79</v>
+      </c>
+      <c r="G323" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>20</v>
+      </c>
+      <c r="B324" t="s">
+        <v>25</v>
+      </c>
+      <c r="C324" t="s">
+        <v>31</v>
+      </c>
+      <c r="D324">
+        <v>88</v>
+      </c>
+      <c r="E324">
+        <v>92</v>
+      </c>
+      <c r="F324">
+        <v>95.7</v>
+      </c>
+      <c r="G324" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>20</v>
+      </c>
+      <c r="B325" t="s">
+        <v>25</v>
+      </c>
+      <c r="C325" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325">
+        <v>36</v>
+      </c>
+      <c r="E325">
+        <v>55</v>
+      </c>
+      <c r="F325">
+        <v>65.5</v>
+      </c>
+      <c r="G325" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>20</v>
+      </c>
+      <c r="B326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326" t="s">
+        <v>29</v>
+      </c>
+      <c r="D326">
+        <v>432</v>
+      </c>
+      <c r="E326">
+        <v>795</v>
+      </c>
+      <c r="F326">
+        <v>54.3</v>
+      </c>
+      <c r="G326" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>20</v>
+      </c>
+      <c r="B327" t="s">
+        <v>26</v>
+      </c>
+      <c r="C327" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327">
+        <v>1215</v>
+      </c>
+      <c r="E327">
+        <v>2399</v>
+      </c>
+      <c r="F327">
+        <v>50.6</v>
+      </c>
+      <c r="G327" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>20</v>
+      </c>
+      <c r="B328" t="s">
+        <v>26</v>
+      </c>
+      <c r="C328" t="s">
+        <v>31</v>
+      </c>
+      <c r="D328">
+        <v>46</v>
+      </c>
+      <c r="E328">
+        <v>92</v>
+      </c>
+      <c r="F328">
+        <v>50</v>
+      </c>
+      <c r="G328" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>20</v>
+      </c>
+      <c r="B329" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329" t="s">
+        <v>32</v>
+      </c>
+      <c r="D329">
+        <v>15</v>
+      </c>
+      <c r="E329">
+        <v>55</v>
+      </c>
+      <c r="F329">
+        <v>27.3</v>
+      </c>
+      <c r="G329" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>20</v>
+      </c>
+      <c r="B330" t="s">
+        <v>27</v>
+      </c>
+      <c r="C330" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330">
+        <v>562</v>
+      </c>
+      <c r="E330">
+        <v>795</v>
+      </c>
+      <c r="F330">
+        <v>70.7</v>
+      </c>
+      <c r="G330" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>20</v>
+      </c>
+      <c r="B331" t="s">
+        <v>27</v>
+      </c>
+      <c r="C331" t="s">
+        <v>30</v>
+      </c>
+      <c r="D331">
+        <v>1615</v>
+      </c>
+      <c r="E331">
+        <v>2399</v>
+      </c>
+      <c r="F331">
+        <v>67.3</v>
+      </c>
+      <c r="G331" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>20</v>
+      </c>
+      <c r="B332" t="s">
+        <v>27</v>
+      </c>
+      <c r="C332" t="s">
+        <v>31</v>
+      </c>
+      <c r="D332">
+        <v>56</v>
+      </c>
+      <c r="E332">
+        <v>92</v>
+      </c>
+      <c r="F332">
+        <v>60.9</v>
+      </c>
+      <c r="G332" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>20</v>
+      </c>
+      <c r="B333" t="s">
+        <v>27</v>
+      </c>
+      <c r="C333" t="s">
+        <v>32</v>
+      </c>
+      <c r="D333">
+        <v>29</v>
+      </c>
+      <c r="E333">
+        <v>55</v>
+      </c>
+      <c r="F333">
+        <v>52.7</v>
+      </c>
+      <c r="G333" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>20</v>
+      </c>
+      <c r="B334" t="s">
+        <v>28</v>
+      </c>
+      <c r="C334" t="s">
+        <v>29</v>
+      </c>
+      <c r="D334">
+        <v>344</v>
+      </c>
+      <c r="E334">
+        <v>795</v>
+      </c>
+      <c r="F334">
+        <v>43.3</v>
+      </c>
+      <c r="G334" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>20</v>
+      </c>
+      <c r="B335" t="s">
+        <v>28</v>
+      </c>
+      <c r="C335" t="s">
+        <v>30</v>
+      </c>
+      <c r="D335">
+        <v>910</v>
+      </c>
+      <c r="E335">
+        <v>2399</v>
+      </c>
+      <c r="F335">
+        <v>37.9</v>
+      </c>
+      <c r="G335" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>20</v>
+      </c>
+      <c r="B336" t="s">
+        <v>28</v>
+      </c>
+      <c r="C336" t="s">
+        <v>31</v>
+      </c>
+      <c r="D336">
+        <v>37</v>
+      </c>
+      <c r="E336">
+        <v>92</v>
+      </c>
+      <c r="F336">
+        <v>40.2</v>
+      </c>
+      <c r="G336" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>20</v>
+      </c>
+      <c r="B337" t="s">
+        <v>28</v>
+      </c>
+      <c r="C337" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337">
+        <v>17</v>
+      </c>
+      <c r="E337">
+        <v>55</v>
+      </c>
+      <c r="F337">
+        <v>30.9</v>
+      </c>
+      <c r="G337" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>21</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>29</v>
+      </c>
+      <c r="D338">
+        <v>448</v>
+      </c>
+      <c r="E338">
+        <v>795</v>
+      </c>
+      <c r="F338">
+        <v>56.4</v>
+      </c>
+      <c r="G338" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" t="s">
+        <v>30</v>
+      </c>
+      <c r="D339">
+        <v>1216</v>
+      </c>
+      <c r="E339">
+        <v>2399</v>
+      </c>
+      <c r="F339">
+        <v>50.7</v>
+      </c>
+      <c r="G339" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>21</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340" t="s">
+        <v>31</v>
+      </c>
+      <c r="D340">
+        <v>43</v>
+      </c>
+      <c r="E340">
+        <v>92</v>
+      </c>
+      <c r="F340">
+        <v>46.7</v>
+      </c>
+      <c r="G340" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>21</v>
+      </c>
+      <c r="B341" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" t="s">
+        <v>32</v>
+      </c>
+      <c r="D341">
+        <v>21</v>
+      </c>
+      <c r="E341">
+        <v>55</v>
+      </c>
+      <c r="F341">
+        <v>38.2</v>
+      </c>
+      <c r="G341" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>21</v>
+      </c>
+      <c r="B342" t="s">
+        <v>24</v>
+      </c>
+      <c r="C342" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342">
+        <v>238</v>
+      </c>
+      <c r="E342">
+        <v>795</v>
+      </c>
+      <c r="F342">
+        <v>29.9</v>
+      </c>
+      <c r="G342" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>21</v>
+      </c>
+      <c r="B343" t="s">
+        <v>24</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343">
+        <v>804</v>
+      </c>
+      <c r="E343">
+        <v>2399</v>
+      </c>
+      <c r="F343">
+        <v>33.5</v>
+      </c>
+      <c r="G343" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" t="s">
+        <v>21</v>
+      </c>
+      <c r="B344" t="s">
+        <v>24</v>
+      </c>
+      <c r="C344" t="s">
+        <v>31</v>
+      </c>
+      <c r="D344">
+        <v>29</v>
+      </c>
+      <c r="E344">
+        <v>92</v>
+      </c>
+      <c r="F344">
+        <v>31.5</v>
+      </c>
+      <c r="G344" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>21</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+      <c r="C345" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345">
+        <v>4</v>
+      </c>
+      <c r="E345">
+        <v>55</v>
+      </c>
+      <c r="F345">
+        <v>7.3</v>
+      </c>
+      <c r="G345" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>21</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" t="s">
+        <v>29</v>
+      </c>
+      <c r="D346">
+        <v>702</v>
+      </c>
+      <c r="E346">
+        <v>795</v>
+      </c>
+      <c r="F346">
+        <v>88.3</v>
+      </c>
+      <c r="G346" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>21</v>
+      </c>
+      <c r="B347" t="s">
+        <v>25</v>
+      </c>
+      <c r="C347" t="s">
+        <v>30</v>
+      </c>
+      <c r="D347">
+        <v>1899</v>
+      </c>
+      <c r="E347">
+        <v>2399</v>
+      </c>
+      <c r="F347">
+        <v>79.2</v>
+      </c>
+      <c r="G347" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348">
+        <v>89</v>
+      </c>
+      <c r="E348">
+        <v>92</v>
+      </c>
+      <c r="F348">
+        <v>96.7</v>
+      </c>
+      <c r="G348" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>21</v>
+      </c>
+      <c r="B349" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349" t="s">
+        <v>32</v>
+      </c>
+      <c r="D349">
+        <v>36</v>
+      </c>
+      <c r="E349">
+        <v>55</v>
+      </c>
+      <c r="F349">
+        <v>65.5</v>
+      </c>
+      <c r="G349" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350" t="s">
+        <v>26</v>
+      </c>
+      <c r="C350" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350">
+        <v>429</v>
+      </c>
+      <c r="E350">
+        <v>795</v>
+      </c>
+      <c r="F350">
+        <v>54</v>
+      </c>
+      <c r="G350" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>21</v>
+      </c>
+      <c r="B351" t="s">
+        <v>26</v>
+      </c>
+      <c r="C351" t="s">
+        <v>30</v>
+      </c>
+      <c r="D351">
+        <v>1211</v>
+      </c>
+      <c r="E351">
+        <v>2399</v>
+      </c>
+      <c r="F351">
+        <v>50.5</v>
+      </c>
+      <c r="G351" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>21</v>
+      </c>
+      <c r="B352" t="s">
+        <v>26</v>
+      </c>
+      <c r="C352" t="s">
+        <v>31</v>
+      </c>
+      <c r="D352">
+        <v>44</v>
+      </c>
+      <c r="E352">
+        <v>92</v>
+      </c>
+      <c r="F352">
+        <v>47.8</v>
+      </c>
+      <c r="G352" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>21</v>
+      </c>
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" t="s">
+        <v>32</v>
+      </c>
+      <c r="D353">
+        <v>15</v>
+      </c>
+      <c r="E353">
+        <v>55</v>
+      </c>
+      <c r="F353">
+        <v>27.3</v>
+      </c>
+      <c r="G353" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>21</v>
+      </c>
+      <c r="B354" t="s">
+        <v>27</v>
+      </c>
+      <c r="C354" t="s">
+        <v>29</v>
+      </c>
+      <c r="D354">
+        <v>562</v>
+      </c>
+      <c r="E354">
+        <v>795</v>
+      </c>
+      <c r="F354">
+        <v>70.7</v>
+      </c>
+      <c r="G354" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>21</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="s">
+        <v>30</v>
+      </c>
+      <c r="D355">
+        <v>1604</v>
+      </c>
+      <c r="E355">
+        <v>2399</v>
+      </c>
+      <c r="F355">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="G355" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>21</v>
+      </c>
+      <c r="B356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" t="s">
+        <v>31</v>
+      </c>
+      <c r="D356">
+        <v>56</v>
+      </c>
+      <c r="E356">
+        <v>92</v>
+      </c>
+      <c r="F356">
+        <v>60.9</v>
+      </c>
+      <c r="G356" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>21</v>
+      </c>
+      <c r="B357" t="s">
+        <v>27</v>
+      </c>
+      <c r="C357" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357">
+        <v>29</v>
+      </c>
+      <c r="E357">
+        <v>55</v>
+      </c>
+      <c r="F357">
+        <v>52.7</v>
+      </c>
+      <c r="G357" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>21</v>
+      </c>
+      <c r="B358" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" t="s">
+        <v>29</v>
+      </c>
+      <c r="D358">
+        <v>342</v>
+      </c>
+      <c r="E358">
+        <v>795</v>
+      </c>
+      <c r="F358">
+        <v>43</v>
+      </c>
+      <c r="G358" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>21</v>
+      </c>
+      <c r="B359" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359" t="s">
+        <v>30</v>
+      </c>
+      <c r="D359">
+        <v>904</v>
+      </c>
+      <c r="E359">
+        <v>2399</v>
+      </c>
+      <c r="F359">
+        <v>37.7</v>
+      </c>
+      <c r="G359" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360" t="s">
+        <v>31</v>
+      </c>
+      <c r="D360">
+        <v>40</v>
+      </c>
+      <c r="E360">
+        <v>92</v>
+      </c>
+      <c r="F360">
+        <v>43.5</v>
+      </c>
+      <c r="G360" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>21</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361">
+        <v>17</v>
+      </c>
+      <c r="E361">
+        <v>55</v>
+      </c>
+      <c r="F361">
+        <v>30.9</v>
+      </c>
+      <c r="G361" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>22</v>
+      </c>
+      <c r="B362" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362">
+        <v>442</v>
+      </c>
+      <c r="E362">
+        <v>795</v>
+      </c>
+      <c r="F362">
+        <v>55.6</v>
+      </c>
+      <c r="G362" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" t="s">
+        <v>30</v>
+      </c>
+      <c r="D363">
+        <v>1213</v>
+      </c>
+      <c r="E363">
+        <v>2399</v>
+      </c>
+      <c r="F363">
+        <v>50.6</v>
+      </c>
+      <c r="G363" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>22</v>
+      </c>
+      <c r="B364" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" t="s">
+        <v>31</v>
+      </c>
+      <c r="D364">
+        <v>43</v>
+      </c>
+      <c r="E364">
+        <v>92</v>
+      </c>
+      <c r="F364">
+        <v>46.7</v>
+      </c>
+      <c r="G364" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365">
+        <v>16</v>
+      </c>
+      <c r="E365">
+        <v>55</v>
+      </c>
+      <c r="F365">
+        <v>29.1</v>
+      </c>
+      <c r="G365" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>24</v>
+      </c>
+      <c r="C366" t="s">
+        <v>29</v>
+      </c>
+      <c r="D366">
+        <v>237</v>
+      </c>
+      <c r="E366">
+        <v>795</v>
+      </c>
+      <c r="F366">
+        <v>29.8</v>
+      </c>
+      <c r="G366" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>22</v>
+      </c>
+      <c r="B367" t="s">
+        <v>24</v>
+      </c>
+      <c r="C367" t="s">
+        <v>30</v>
+      </c>
+      <c r="D367">
+        <v>805</v>
+      </c>
+      <c r="E367">
+        <v>2399</v>
+      </c>
+      <c r="F367">
+        <v>33.6</v>
+      </c>
+      <c r="G367" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>22</v>
+      </c>
+      <c r="B368" t="s">
+        <v>24</v>
+      </c>
+      <c r="C368" t="s">
+        <v>31</v>
+      </c>
+      <c r="D368">
+        <v>29</v>
+      </c>
+      <c r="E368">
+        <v>92</v>
+      </c>
+      <c r="F368">
+        <v>31.5</v>
+      </c>
+      <c r="G368" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" t="s">
+        <v>22</v>
+      </c>
+      <c r="B369" t="s">
+        <v>24</v>
+      </c>
+      <c r="C369" t="s">
+        <v>32</v>
+      </c>
+      <c r="D369">
+        <v>4</v>
+      </c>
+      <c r="E369">
+        <v>55</v>
+      </c>
+      <c r="F369">
+        <v>7.3</v>
+      </c>
+      <c r="G369" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>22</v>
+      </c>
+      <c r="B370" t="s">
+        <v>25</v>
+      </c>
+      <c r="C370" t="s">
+        <v>29</v>
+      </c>
+      <c r="D370">
+        <v>703</v>
+      </c>
+      <c r="E370">
+        <v>795</v>
+      </c>
+      <c r="F370">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G370" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>22</v>
+      </c>
+      <c r="B371" t="s">
+        <v>25</v>
+      </c>
+      <c r="C371" t="s">
+        <v>30</v>
+      </c>
+      <c r="D371">
+        <v>1896</v>
+      </c>
+      <c r="E371">
+        <v>2399</v>
+      </c>
+      <c r="F371">
+        <v>79</v>
+      </c>
+      <c r="G371" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>22</v>
+      </c>
+      <c r="B372" t="s">
+        <v>25</v>
+      </c>
+      <c r="C372" t="s">
+        <v>31</v>
+      </c>
+      <c r="D372">
+        <v>89</v>
+      </c>
+      <c r="E372">
+        <v>92</v>
+      </c>
+      <c r="F372">
+        <v>96.7</v>
+      </c>
+      <c r="G372" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>22</v>
+      </c>
+      <c r="B373" t="s">
+        <v>25</v>
+      </c>
+      <c r="C373" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373">
+        <v>35</v>
+      </c>
+      <c r="E373">
+        <v>55</v>
+      </c>
+      <c r="F373">
+        <v>63.6</v>
+      </c>
+      <c r="G373" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>22</v>
+      </c>
+      <c r="B374" t="s">
+        <v>26</v>
+      </c>
+      <c r="C374" t="s">
+        <v>29</v>
+      </c>
+      <c r="D374">
+        <v>434</v>
+      </c>
+      <c r="E374">
+        <v>795</v>
+      </c>
+      <c r="F374">
+        <v>54.6</v>
+      </c>
+      <c r="G374" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>22</v>
+      </c>
+      <c r="B375" t="s">
+        <v>26</v>
+      </c>
+      <c r="C375" t="s">
+        <v>30</v>
+      </c>
+      <c r="D375">
+        <v>1211</v>
+      </c>
+      <c r="E375">
+        <v>2399</v>
+      </c>
+      <c r="F375">
+        <v>50.5</v>
+      </c>
+      <c r="G375" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>22</v>
+      </c>
+      <c r="B376" t="s">
+        <v>26</v>
+      </c>
+      <c r="C376" t="s">
+        <v>31</v>
+      </c>
+      <c r="D376">
+        <v>45</v>
+      </c>
+      <c r="E376">
+        <v>92</v>
+      </c>
+      <c r="F376">
+        <v>48.9</v>
+      </c>
+      <c r="G376" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>22</v>
+      </c>
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+      <c r="C377" t="s">
+        <v>32</v>
+      </c>
+      <c r="D377">
+        <v>15</v>
+      </c>
+      <c r="E377">
+        <v>55</v>
+      </c>
+      <c r="F377">
+        <v>27.3</v>
+      </c>
+      <c r="G377" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>22</v>
+      </c>
+      <c r="B378" t="s">
+        <v>27</v>
+      </c>
+      <c r="C378" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378">
+        <v>555</v>
+      </c>
+      <c r="E378">
+        <v>795</v>
+      </c>
+      <c r="F378">
+        <v>69.8</v>
+      </c>
+      <c r="G378" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>22</v>
+      </c>
+      <c r="B379" t="s">
+        <v>27</v>
+      </c>
+      <c r="C379" t="s">
+        <v>30</v>
+      </c>
+      <c r="D379">
+        <v>1602</v>
+      </c>
+      <c r="E379">
+        <v>2399</v>
+      </c>
+      <c r="F379">
+        <v>66.8</v>
+      </c>
+      <c r="G379" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" t="s">
+        <v>22</v>
+      </c>
+      <c r="B380" t="s">
+        <v>27</v>
+      </c>
+      <c r="C380" t="s">
+        <v>31</v>
+      </c>
+      <c r="D380">
+        <v>56</v>
+      </c>
+      <c r="E380">
+        <v>92</v>
+      </c>
+      <c r="F380">
+        <v>60.9</v>
+      </c>
+      <c r="G380" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>22</v>
+      </c>
+      <c r="B381" t="s">
+        <v>27</v>
+      </c>
+      <c r="C381" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381">
+        <v>27</v>
+      </c>
+      <c r="E381">
+        <v>55</v>
+      </c>
+      <c r="F381">
+        <v>49.1</v>
+      </c>
+      <c r="G381" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>22</v>
+      </c>
+      <c r="B382" t="s">
+        <v>28</v>
+      </c>
+      <c r="C382" t="s">
+        <v>29</v>
+      </c>
+      <c r="D382">
+        <v>341</v>
+      </c>
+      <c r="E382">
+        <v>795</v>
+      </c>
+      <c r="F382">
+        <v>42.9</v>
+      </c>
+      <c r="G382" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>22</v>
+      </c>
+      <c r="B383" t="s">
+        <v>28</v>
+      </c>
+      <c r="C383" t="s">
+        <v>30</v>
+      </c>
+      <c r="D383">
+        <v>904</v>
+      </c>
+      <c r="E383">
+        <v>2399</v>
+      </c>
+      <c r="F383">
+        <v>37.7</v>
+      </c>
+      <c r="G383" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" t="s">
+        <v>22</v>
+      </c>
+      <c r="B384" t="s">
+        <v>28</v>
+      </c>
+      <c r="C384" t="s">
+        <v>31</v>
+      </c>
+      <c r="D384">
+        <v>41</v>
+      </c>
+      <c r="E384">
+        <v>92</v>
+      </c>
+      <c r="F384">
+        <v>44.6</v>
+      </c>
+      <c r="G384" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>22</v>
+      </c>
+      <c r="B385" t="s">
+        <v>28</v>
+      </c>
+      <c r="C385" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385">
+        <v>16</v>
+      </c>
+      <c r="E385">
+        <v>55</v>
+      </c>
+      <c r="F385">
+        <v>29.1</v>
+      </c>
+      <c r="G385" s="2">
+        <v>44705</v>
       </c>
     </row>
   </sheetData>
